--- a/家装/128平米预算表.xlsx
+++ b/家装/128平米预算表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="6516" yWindow="132" windowWidth="23256" windowHeight="9336" tabRatio="740" activeTab="3"/>
+    <workbookView xWindow="6516" yWindow="132" windowWidth="23256" windowHeight="9336" tabRatio="740"/>
   </bookViews>
   <sheets>
     <sheet name="基本家装" sheetId="3" r:id="rId1"/>
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'主材 衣柜 门'!$A$1:$G$21</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">基本家装!$A$1:$K$70</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">基本家装!$A$1:$K$77</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">家具家电!$A$1:$G$24</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'主材 衣柜 门'!$1:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">基本家装!$1:$2</definedName>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="152">
   <si>
     <t>序号</t>
   </si>
@@ -477,6 +477,12 @@
   </si>
   <si>
     <t>基本家装预算表</t>
+  </si>
+  <si>
+    <t>大连 九牧  看看厨卫价格？</t>
+  </si>
+  <si>
+    <t>科勒浴缸</t>
   </si>
 </sst>
 </file>
@@ -737,7 +743,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -898,27 +904,6 @@
     <xf numFmtId="1" fontId="18" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="18" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -928,21 +913,6 @@
     <xf numFmtId="165" fontId="11" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -959,6 +929,60 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="11" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1385,11 +1409,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L75"/>
+  <dimension ref="A1:L77"/>
   <sheetViews>
-    <sheetView zoomScale="115" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J70" sqref="J70:J74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="19.95" customHeight="1"/>
@@ -1411,19 +1435,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="74" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" ht="19.95" customHeight="1">
       <c r="A2" s="9" t="s">
@@ -1461,10 +1485,10 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="55"/>
+      <c r="B3" s="75"/>
       <c r="C3" s="11"/>
       <c r="D3" s="12"/>
       <c r="E3" s="24"/>
@@ -1507,7 +1531,7 @@
         <f t="shared" ref="J4:J8" si="0">D4*(E4+F4+G4+H4+I4)</f>
         <v>70.02</v>
       </c>
-      <c r="K4" s="69" t="s">
+      <c r="K4" s="57" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1543,7 +1567,7 @@
         <f t="shared" si="0"/>
         <v>30.8</v>
       </c>
-      <c r="K5" s="70" t="s">
+      <c r="K5" s="58" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1579,7 +1603,7 @@
         <f t="shared" si="0"/>
         <v>87.524999999999991</v>
       </c>
-      <c r="K6" s="69" t="s">
+      <c r="K6" s="57" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1615,7 +1639,7 @@
         <f t="shared" si="0"/>
         <v>38.5</v>
       </c>
-      <c r="K7" s="70" t="s">
+      <c r="K7" s="58" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1651,15 +1675,15 @@
         <f t="shared" si="0"/>
         <v>292</v>
       </c>
-      <c r="K8" s="69" t="s">
+      <c r="K8" s="57" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A9" s="55" t="s">
+      <c r="A9" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="55"/>
+      <c r="B9" s="75"/>
       <c r="C9" s="11"/>
       <c r="D9" s="12"/>
       <c r="E9" s="24"/>
@@ -1702,7 +1726,7 @@
         <f t="shared" ref="J10:J14" si="1">D10*(E10+F10+G10+H10+I10)</f>
         <v>875.25</v>
       </c>
-      <c r="K10" s="69" t="s">
+      <c r="K10" s="57" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1738,7 +1762,7 @@
         <f t="shared" si="1"/>
         <v>385</v>
       </c>
-      <c r="K11" s="70" t="s">
+      <c r="K11" s="58" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1774,7 +1798,7 @@
         <f t="shared" si="1"/>
         <v>1225.3499999999999</v>
       </c>
-      <c r="K12" s="69" t="s">
+      <c r="K12" s="57" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1810,7 +1834,7 @@
         <f t="shared" si="1"/>
         <v>840</v>
       </c>
-      <c r="K13" s="70" t="s">
+      <c r="K13" s="58" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1846,15 +1870,15 @@
         <f t="shared" si="1"/>
         <v>5110</v>
       </c>
-      <c r="K14" s="69" t="s">
+      <c r="K14" s="57" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A15" s="55" t="s">
+      <c r="A15" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="55"/>
+      <c r="B15" s="75"/>
       <c r="C15" s="11"/>
       <c r="D15" s="12"/>
       <c r="E15" s="24"/>
@@ -1889,10 +1913,10 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A17" s="55" t="s">
+      <c r="A17" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="55"/>
+      <c r="B17" s="75"/>
       <c r="C17" s="11"/>
       <c r="D17" s="12"/>
       <c r="E17" s="24"/>
@@ -2118,10 +2142,10 @@
       <c r="K23" s="14"/>
     </row>
     <row r="24" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A24" s="58" t="s">
+      <c r="A24" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="59"/>
+      <c r="B24" s="79"/>
       <c r="C24" s="11"/>
       <c r="D24" s="12"/>
       <c r="E24" s="24"/>
@@ -2347,10 +2371,10 @@
       <c r="K30" s="14"/>
     </row>
     <row r="31" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A31" s="58" t="s">
+      <c r="A31" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="B31" s="59"/>
+      <c r="B31" s="79"/>
       <c r="C31" s="11"/>
       <c r="D31" s="12"/>
       <c r="E31" s="24"/>
@@ -2576,10 +2600,10 @@
       <c r="K37" s="14"/>
     </row>
     <row r="38" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A38" s="55" t="s">
+      <c r="A38" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="B38" s="55"/>
+      <c r="B38" s="75"/>
       <c r="C38" s="11"/>
       <c r="D38" s="12"/>
       <c r="E38" s="24"/>
@@ -2807,10 +2831,10 @@
       </c>
     </row>
     <row r="45" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A45" s="55" t="s">
+      <c r="A45" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="B45" s="55"/>
+      <c r="B45" s="75"/>
       <c r="C45" s="11"/>
       <c r="D45" s="12"/>
       <c r="E45" s="24"/>
@@ -2997,7 +3021,7 @@
         <f>D50*(E50+F50+G50+H50+I50)</f>
         <v>1708</v>
       </c>
-      <c r="K50" s="69" t="s">
+      <c r="K50" s="57" t="s">
         <v>77</v>
       </c>
     </row>
@@ -3038,10 +3062,10 @@
       </c>
     </row>
     <row r="52" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A52" s="55" t="s">
+      <c r="A52" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="B52" s="55"/>
+      <c r="B52" s="75"/>
       <c r="C52" s="11"/>
       <c r="D52" s="12"/>
       <c r="E52" s="24"/>
@@ -3269,10 +3293,10 @@
       </c>
     </row>
     <row r="59" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A59" s="56" t="s">
+      <c r="A59" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="B59" s="57"/>
+      <c r="B59" s="77"/>
       <c r="C59" s="11"/>
       <c r="D59" s="12"/>
       <c r="E59" s="24"/>
@@ -3392,10 +3416,10 @@
       </c>
     </row>
     <row r="63" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A63" s="56" t="s">
+      <c r="A63" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="B63" s="57"/>
+      <c r="B63" s="77"/>
       <c r="C63" s="11"/>
       <c r="D63" s="12"/>
       <c r="E63" s="24"/>
@@ -3623,23 +3647,23 @@
       </c>
     </row>
     <row r="70" spans="1:12" s="5" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A70" s="71" t="s">
+      <c r="A70" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="B70" s="72" t="s">
+      <c r="B70" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="C70" s="71" t="s">
+      <c r="C70" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="D70" s="73"/>
-      <c r="E70" s="74"/>
-      <c r="F70" s="63"/>
-      <c r="G70" s="63"/>
-      <c r="H70" s="63"/>
-      <c r="I70" s="63"/>
+      <c r="D70" s="61"/>
+      <c r="E70" s="62"/>
+      <c r="F70" s="56"/>
+      <c r="G70" s="56"/>
+      <c r="H70" s="56"/>
+      <c r="I70" s="56"/>
       <c r="J70" s="53">
-        <f>SUM(J3:J69)</f>
+        <f>SUM(J2:J69)</f>
         <v>45593.162650000006</v>
       </c>
       <c r="K70" s="45" t="s">
@@ -3648,6 +3672,15 @@
       <c r="L70" s="19"/>
     </row>
     <row r="71" spans="1:12" ht="19.95" customHeight="1">
+      <c r="A71" s="64"/>
+      <c r="B71" s="65"/>
+      <c r="C71" s="64"/>
+      <c r="D71" s="66"/>
+      <c r="E71" s="67"/>
+      <c r="F71" s="68"/>
+      <c r="G71" s="68"/>
+      <c r="H71" s="68"/>
+      <c r="I71" s="68"/>
       <c r="J71" s="48">
         <v>5000</v>
       </c>
@@ -3656,6 +3689,15 @@
       </c>
     </row>
     <row r="72" spans="1:12" ht="19.95" customHeight="1">
+      <c r="A72" s="64"/>
+      <c r="B72" s="65"/>
+      <c r="C72" s="64"/>
+      <c r="D72" s="66"/>
+      <c r="E72" s="67"/>
+      <c r="F72" s="68"/>
+      <c r="G72" s="68"/>
+      <c r="H72" s="68"/>
+      <c r="I72" s="68"/>
       <c r="J72" s="48">
         <v>14000</v>
       </c>
@@ -3664,6 +3706,15 @@
       </c>
     </row>
     <row r="73" spans="1:12" ht="19.95" customHeight="1">
+      <c r="A73" s="64"/>
+      <c r="B73" s="65"/>
+      <c r="C73" s="64"/>
+      <c r="D73" s="66"/>
+      <c r="E73" s="67"/>
+      <c r="F73" s="68"/>
+      <c r="G73" s="68"/>
+      <c r="H73" s="68"/>
+      <c r="I73" s="68"/>
       <c r="J73" s="48">
         <v>9000</v>
       </c>
@@ -3672,6 +3723,15 @@
       </c>
     </row>
     <row r="74" spans="1:12" ht="19.95" customHeight="1">
+      <c r="A74" s="64"/>
+      <c r="B74" s="65"/>
+      <c r="C74" s="64"/>
+      <c r="D74" s="66"/>
+      <c r="E74" s="67"/>
+      <c r="F74" s="68"/>
+      <c r="G74" s="68"/>
+      <c r="H74" s="68"/>
+      <c r="I74" s="68"/>
       <c r="J74" s="48">
         <v>1000</v>
       </c>
@@ -3680,26 +3740,52 @@
       </c>
     </row>
     <row r="75" spans="1:12" ht="19.95" customHeight="1">
-      <c r="A75" s="64"/>
-      <c r="B75" s="65"/>
-      <c r="C75" s="64"/>
-      <c r="D75" s="66"/>
-      <c r="E75" s="67"/>
-      <c r="F75" s="68"/>
-      <c r="G75" s="68"/>
-      <c r="H75" s="62" t="s">
+      <c r="A75" s="69"/>
+      <c r="B75" s="70"/>
+      <c r="C75" s="69"/>
+      <c r="D75" s="71"/>
+      <c r="E75" s="72"/>
+      <c r="F75" s="73"/>
+      <c r="G75" s="73"/>
+      <c r="H75" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="I75" s="62" t="s">
+      <c r="I75" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="J75" s="61">
+      <c r="J75" s="54">
         <f>SUM(J70:J74)</f>
         <v>74593.162650000013</v>
       </c>
-      <c r="K75" s="62" t="s">
+      <c r="K75" s="55" t="s">
         <v>142</v>
       </c>
+    </row>
+    <row r="76" spans="1:12" ht="19.95" customHeight="1">
+      <c r="A76" s="64"/>
+      <c r="B76" s="65"/>
+      <c r="C76" s="64"/>
+      <c r="D76" s="66"/>
+      <c r="E76" s="67"/>
+      <c r="F76" s="68"/>
+      <c r="G76" s="68"/>
+      <c r="H76" s="68"/>
+      <c r="I76" s="68"/>
+      <c r="J76" s="48"/>
+      <c r="K76" s="14"/>
+    </row>
+    <row r="77" spans="1:12" ht="19.95" customHeight="1">
+      <c r="A77" s="64"/>
+      <c r="B77" s="65"/>
+      <c r="C77" s="64"/>
+      <c r="D77" s="66"/>
+      <c r="E77" s="67"/>
+      <c r="F77" s="68"/>
+      <c r="G77" s="68"/>
+      <c r="H77" s="68"/>
+      <c r="I77" s="68"/>
+      <c r="J77" s="48"/>
+      <c r="K77" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -3730,7 +3816,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView zoomScale="115" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -3749,15 +3835,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" ht="19.95" customHeight="1">
       <c r="A2" s="9" t="s">
@@ -3783,10 +3869,10 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="19.95" customHeight="1">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="55"/>
+      <c r="B3" s="75"/>
       <c r="C3" s="11"/>
       <c r="D3" s="12"/>
       <c r="E3" s="24"/>
@@ -3818,10 +3904,10 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="19.95" customHeight="1">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="55"/>
+      <c r="B5" s="75"/>
       <c r="C5" s="11"/>
       <c r="D5" s="12"/>
       <c r="E5" s="24"/>
@@ -3832,10 +3918,10 @@
       <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" ht="19.95" customHeight="1">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="55"/>
+      <c r="B6" s="75"/>
       <c r="C6" s="11"/>
       <c r="D6" s="12"/>
       <c r="E6" s="24"/>
@@ -3892,10 +3978,10 @@
       <c r="G8" s="14"/>
     </row>
     <row r="9" spans="1:7" ht="19.95" customHeight="1">
-      <c r="A9" s="58" t="s">
+      <c r="A9" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="59"/>
+      <c r="B9" s="79"/>
       <c r="C9" s="11"/>
       <c r="D9" s="12"/>
       <c r="E9" s="24"/>
@@ -3928,10 +4014,10 @@
       <c r="G10" s="14"/>
     </row>
     <row r="11" spans="1:7" ht="19.95" customHeight="1">
-      <c r="A11" s="58" t="s">
+      <c r="A11" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="59"/>
+      <c r="B11" s="79"/>
       <c r="C11" s="11"/>
       <c r="D11" s="12"/>
       <c r="E11" s="24"/>
@@ -3964,10 +4050,10 @@
       <c r="G12" s="14"/>
     </row>
     <row r="13" spans="1:7" ht="19.95" customHeight="1">
-      <c r="A13" s="55" t="s">
+      <c r="A13" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="55"/>
+      <c r="B13" s="75"/>
       <c r="C13" s="11"/>
       <c r="D13" s="12"/>
       <c r="E13" s="24"/>
@@ -4002,10 +4088,10 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="19.95" customHeight="1">
-      <c r="A15" s="55" t="s">
+      <c r="A15" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="55"/>
+      <c r="B15" s="75"/>
       <c r="C15" s="11"/>
       <c r="D15" s="12"/>
       <c r="E15" s="24"/>
@@ -4040,10 +4126,10 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="19.95" customHeight="1">
-      <c r="A17" s="55" t="s">
+      <c r="A17" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="55"/>
+      <c r="B17" s="75"/>
       <c r="C17" s="11"/>
       <c r="D17" s="12"/>
       <c r="E17" s="24"/>
@@ -4145,10 +4231,10 @@
       <c r="H21" s="19"/>
     </row>
     <row r="22" spans="1:8" ht="19.95" customHeight="1">
-      <c r="A22" s="60" t="s">
+      <c r="A22" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="60"/>
+      <c r="B22" s="80"/>
       <c r="C22" s="11"/>
       <c r="D22" s="12"/>
       <c r="E22" s="24"/>
@@ -4379,15 +4465,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="74" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" ht="19.95" customHeight="1">
       <c r="A2" s="9" t="s">
@@ -4413,10 +4499,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="19.95" customHeight="1">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="55"/>
+      <c r="B3" s="75"/>
       <c r="C3" s="11"/>
       <c r="D3" s="12"/>
       <c r="E3" s="24"/>
@@ -4721,10 +4807,10 @@
       <c r="H16" s="19"/>
     </row>
     <row r="17" spans="1:8" ht="19.95" customHeight="1">
-      <c r="A17" s="60" t="s">
+      <c r="A17" s="80" t="s">
         <v>60</v>
       </c>
-      <c r="B17" s="60"/>
+      <c r="B17" s="80"/>
       <c r="C17" s="11"/>
       <c r="D17" s="12"/>
       <c r="E17" s="24"/>
@@ -4894,10 +4980,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C23"/>
+  <dimension ref="A2:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -4981,6 +5067,16 @@
     <row r="23" spans="2:3">
       <c r="C23" t="s">
         <v>146</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -4993,7 +5089,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>

--- a/家装/128平米预算表.xlsx
+++ b/家装/128平米预算表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="6516" yWindow="132" windowWidth="23256" windowHeight="9336" tabRatio="740"/>
+    <workbookView xWindow="6516" yWindow="132" windowWidth="23256" windowHeight="9336" tabRatio="740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="基本家装" sheetId="3" r:id="rId1"/>
@@ -964,22 +964,22 @@
     <xf numFmtId="165" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1411,8 +1411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="115" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J70" sqref="J70:J74"/>
     </sheetView>
   </sheetViews>
@@ -1435,19 +1435,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="79" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" ht="19.95" customHeight="1">
       <c r="A2" s="9" t="s">
@@ -1485,10 +1485,10 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="75"/>
+      <c r="B3" s="78"/>
       <c r="C3" s="11"/>
       <c r="D3" s="12"/>
       <c r="E3" s="24"/>
@@ -1680,10 +1680,10 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A9" s="75" t="s">
+      <c r="A9" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="75"/>
+      <c r="B9" s="78"/>
       <c r="C9" s="11"/>
       <c r="D9" s="12"/>
       <c r="E9" s="24"/>
@@ -1875,10 +1875,10 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A15" s="75" t="s">
+      <c r="A15" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="75"/>
+      <c r="B15" s="78"/>
       <c r="C15" s="11"/>
       <c r="D15" s="12"/>
       <c r="E15" s="24"/>
@@ -1913,10 +1913,10 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A17" s="75" t="s">
+      <c r="A17" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="75"/>
+      <c r="B17" s="78"/>
       <c r="C17" s="11"/>
       <c r="D17" s="12"/>
       <c r="E17" s="24"/>
@@ -2142,10 +2142,10 @@
       <c r="K23" s="14"/>
     </row>
     <row r="24" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A24" s="78" t="s">
+      <c r="A24" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="79"/>
+      <c r="B24" s="77"/>
       <c r="C24" s="11"/>
       <c r="D24" s="12"/>
       <c r="E24" s="24"/>
@@ -2371,10 +2371,10 @@
       <c r="K30" s="14"/>
     </row>
     <row r="31" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A31" s="78" t="s">
+      <c r="A31" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="B31" s="79"/>
+      <c r="B31" s="77"/>
       <c r="C31" s="11"/>
       <c r="D31" s="12"/>
       <c r="E31" s="24"/>
@@ -2600,10 +2600,10 @@
       <c r="K37" s="14"/>
     </row>
     <row r="38" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A38" s="75" t="s">
+      <c r="A38" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="B38" s="75"/>
+      <c r="B38" s="78"/>
       <c r="C38" s="11"/>
       <c r="D38" s="12"/>
       <c r="E38" s="24"/>
@@ -2831,10 +2831,10 @@
       </c>
     </row>
     <row r="45" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A45" s="75" t="s">
+      <c r="A45" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="B45" s="75"/>
+      <c r="B45" s="78"/>
       <c r="C45" s="11"/>
       <c r="D45" s="12"/>
       <c r="E45" s="24"/>
@@ -3062,10 +3062,10 @@
       </c>
     </row>
     <row r="52" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A52" s="75" t="s">
+      <c r="A52" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="B52" s="75"/>
+      <c r="B52" s="78"/>
       <c r="C52" s="11"/>
       <c r="D52" s="12"/>
       <c r="E52" s="24"/>
@@ -3293,10 +3293,10 @@
       </c>
     </row>
     <row r="59" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A59" s="76" t="s">
+      <c r="A59" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="B59" s="77"/>
+      <c r="B59" s="75"/>
       <c r="C59" s="11"/>
       <c r="D59" s="12"/>
       <c r="E59" s="24"/>
@@ -3416,10 +3416,10 @@
       </c>
     </row>
     <row r="63" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A63" s="76" t="s">
+      <c r="A63" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="B63" s="77"/>
+      <c r="B63" s="75"/>
       <c r="C63" s="11"/>
       <c r="D63" s="12"/>
       <c r="E63" s="24"/>
@@ -3789,6 +3789,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A17:B17"/>
     <mergeCell ref="A59:B59"/>
     <mergeCell ref="A63:B63"/>
     <mergeCell ref="A24:B24"/>
@@ -3796,11 +3801,6 @@
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A17:B17"/>
   </mergeCells>
   <pageMargins left="0.08" right="0.08" top="0.24" bottom="0.24" header="0.51" footer="0.16"/>
   <pageSetup paperSize="9" scale="90" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -3815,9 +3815,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView zoomScale="115" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="19.95" customHeight="1"/>
@@ -3835,15 +3835,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="79" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" ht="19.95" customHeight="1">
       <c r="A2" s="9" t="s">
@@ -3869,10 +3869,10 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="19.95" customHeight="1">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="75"/>
+      <c r="B3" s="78"/>
       <c r="C3" s="11"/>
       <c r="D3" s="12"/>
       <c r="E3" s="24"/>
@@ -3904,10 +3904,10 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="19.95" customHeight="1">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="75"/>
+      <c r="B5" s="78"/>
       <c r="C5" s="11"/>
       <c r="D5" s="12"/>
       <c r="E5" s="24"/>
@@ -3918,10 +3918,10 @@
       <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" ht="19.95" customHeight="1">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="75"/>
+      <c r="B6" s="78"/>
       <c r="C6" s="11"/>
       <c r="D6" s="12"/>
       <c r="E6" s="24"/>
@@ -3978,10 +3978,10 @@
       <c r="G8" s="14"/>
     </row>
     <row r="9" spans="1:7" ht="19.95" customHeight="1">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="79"/>
+      <c r="B9" s="77"/>
       <c r="C9" s="11"/>
       <c r="D9" s="12"/>
       <c r="E9" s="24"/>
@@ -4014,10 +4014,10 @@
       <c r="G10" s="14"/>
     </row>
     <row r="11" spans="1:7" ht="19.95" customHeight="1">
-      <c r="A11" s="78" t="s">
+      <c r="A11" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="79"/>
+      <c r="B11" s="77"/>
       <c r="C11" s="11"/>
       <c r="D11" s="12"/>
       <c r="E11" s="24"/>
@@ -4050,10 +4050,10 @@
       <c r="G12" s="14"/>
     </row>
     <row r="13" spans="1:7" ht="19.95" customHeight="1">
-      <c r="A13" s="75" t="s">
+      <c r="A13" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="75"/>
+      <c r="B13" s="78"/>
       <c r="C13" s="11"/>
       <c r="D13" s="12"/>
       <c r="E13" s="24"/>
@@ -4088,10 +4088,10 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="19.95" customHeight="1">
-      <c r="A15" s="75" t="s">
+      <c r="A15" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="75"/>
+      <c r="B15" s="78"/>
       <c r="C15" s="11"/>
       <c r="D15" s="12"/>
       <c r="E15" s="24"/>
@@ -4126,10 +4126,10 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="19.95" customHeight="1">
-      <c r="A17" s="75" t="s">
+      <c r="A17" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="75"/>
+      <c r="B17" s="78"/>
       <c r="C17" s="11"/>
       <c r="D17" s="12"/>
       <c r="E17" s="24"/>
@@ -4421,16 +4421,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A9:B9"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A9:B9"/>
   </mergeCells>
   <pageMargins left="0.08" right="0.08" top="0.24" bottom="0.24" header="0.51" footer="0.16"/>
   <pageSetup paperSize="9" scale="90" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -4465,15 +4465,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="79" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" ht="19.95" customHeight="1">
       <c r="A2" s="9" t="s">
@@ -4499,10 +4499,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="19.95" customHeight="1">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="75"/>
+      <c r="B3" s="78"/>
       <c r="C3" s="11"/>
       <c r="D3" s="12"/>
       <c r="E3" s="24"/>

--- a/家装/128平米预算表.xlsx
+++ b/家装/128平米预算表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="6516" yWindow="132" windowWidth="23256" windowHeight="9336" tabRatio="740" activeTab="1"/>
+    <workbookView xWindow="6516" yWindow="132" windowWidth="23256" windowHeight="9336" tabRatio="740" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="基本家装" sheetId="3" r:id="rId1"/>
@@ -13,21 +13,22 @@
     <sheet name="问题点" sheetId="7" r:id="rId4"/>
     <sheet name="户型1" sheetId="12" r:id="rId5"/>
     <sheet name="户型2" sheetId="13" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="14" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'主材 衣柜 门'!$A$1:$G$21</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">基本家装!$A$1:$K$77</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">家具家电!$A$1:$G$24</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">'主材 衣柜 门'!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'主材 衣柜 门'!$A$1:$G$21</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">基本家装!$1:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">家具家电!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'主材 衣柜 门'!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="166">
   <si>
     <t>序号</t>
   </si>
@@ -483,6 +484,48 @@
   </si>
   <si>
     <t>科勒浴缸</t>
+  </si>
+  <si>
+    <t>面积</t>
+  </si>
+  <si>
+    <t>价钱</t>
+  </si>
+  <si>
+    <t>折扣</t>
+  </si>
+  <si>
+    <t>折后价钱</t>
+  </si>
+  <si>
+    <t>管理费</t>
+  </si>
+  <si>
+    <t>不算管理费单价</t>
+  </si>
+  <si>
+    <t>算管理费单价</t>
+  </si>
+  <si>
+    <t>工序</t>
+  </si>
+  <si>
+    <t>折前价钱</t>
+  </si>
+  <si>
+    <t>生墙处理</t>
+  </si>
+  <si>
+    <t>基层处理</t>
+  </si>
+  <si>
+    <t>乳胶漆</t>
+  </si>
+  <si>
+    <t>其他家</t>
+  </si>
+  <si>
+    <t>40每平</t>
   </si>
 </sst>
 </file>
@@ -493,7 +536,7 @@
     <numFmt numFmtId="164" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -625,6 +668,13 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -738,12 +788,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -964,6 +1015,12 @@
     <xf numFmtId="165" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -976,18 +1033,26 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1416,7 +1481,7 @@
       <selection pane="bottomLeft" activeCell="J70" sqref="J70:J74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="19.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.44140625" style="6" customWidth="1"/>
     <col min="2" max="2" width="17.5546875" style="7" customWidth="1"/>
@@ -1434,22 +1499,22 @@
     <col min="14" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A1" s="79" t="s">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="74" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-    </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" ht="19.95" customHeight="1">
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+    </row>
+    <row r="2" spans="1:11" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -1484,11 +1549,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A3" s="78" t="s">
+    <row r="3" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="78"/>
+      <c r="B3" s="75"/>
       <c r="C3" s="11"/>
       <c r="D3" s="12"/>
       <c r="E3" s="24"/>
@@ -1499,7 +1564,7 @@
       <c r="J3" s="47"/>
       <c r="K3" s="14"/>
     </row>
-    <row r="4" spans="1:11" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="4" spans="1:11" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>1</v>
       </c>
@@ -1535,7 +1600,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="3" customFormat="1" ht="19.95" customHeight="1">
+    <row r="5" spans="1:11" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>2</v>
       </c>
@@ -1571,7 +1636,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="19.95" customHeight="1">
+    <row r="6" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>3</v>
       </c>
@@ -1607,7 +1672,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="3" customFormat="1" ht="19.95" customHeight="1">
+    <row r="7" spans="1:11" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>4</v>
       </c>
@@ -1643,7 +1708,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="19.95" customHeight="1">
+    <row r="8" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>5</v>
       </c>
@@ -1679,11 +1744,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A9" s="78" t="s">
+    <row r="9" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="78"/>
+      <c r="B9" s="75"/>
       <c r="C9" s="11"/>
       <c r="D9" s="12"/>
       <c r="E9" s="24"/>
@@ -1694,7 +1759,7 @@
       <c r="J9" s="47"/>
       <c r="K9" s="14"/>
     </row>
-    <row r="10" spans="1:11" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="10" spans="1:11" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>1</v>
       </c>
@@ -1730,7 +1795,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="3" customFormat="1" ht="19.95" customHeight="1">
+    <row r="11" spans="1:11" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>2</v>
       </c>
@@ -1766,7 +1831,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="19.95" customHeight="1">
+    <row r="12" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>3</v>
       </c>
@@ -1802,7 +1867,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="3" customFormat="1" ht="19.95" customHeight="1">
+    <row r="13" spans="1:11" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>4</v>
       </c>
@@ -1838,7 +1903,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="19.95" customHeight="1">
+    <row r="14" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>5</v>
       </c>
@@ -1874,11 +1939,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A15" s="78" t="s">
+    <row r="15" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="78"/>
+      <c r="B15" s="75"/>
       <c r="C15" s="11"/>
       <c r="D15" s="12"/>
       <c r="E15" s="24"/>
@@ -1889,7 +1954,7 @@
       <c r="J15" s="24"/>
       <c r="K15" s="14"/>
     </row>
-    <row r="16" spans="1:11" ht="19.95" customHeight="1">
+    <row r="16" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>1</v>
       </c>
@@ -1912,11 +1977,11 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A17" s="78" t="s">
+    <row r="17" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="78"/>
+      <c r="B17" s="75"/>
       <c r="C17" s="11"/>
       <c r="D17" s="12"/>
       <c r="E17" s="24"/>
@@ -1927,7 +1992,7 @@
       <c r="J17" s="24"/>
       <c r="K17" s="14"/>
     </row>
-    <row r="18" spans="1:11" ht="19.95" customHeight="1">
+    <row r="18" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>1</v>
       </c>
@@ -1963,7 +2028,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="3" customFormat="1" ht="19.95" customHeight="1">
+    <row r="19" spans="1:11" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>2</v>
       </c>
@@ -1999,7 +2064,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="19.95" customHeight="1">
+    <row r="20" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>3</v>
       </c>
@@ -2035,7 +2100,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="3" customFormat="1" ht="19.95" customHeight="1">
+    <row r="21" spans="1:11" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>4</v>
       </c>
@@ -2071,7 +2136,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="19.95" customHeight="1">
+    <row r="22" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
         <v>5</v>
       </c>
@@ -2107,7 +2172,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="19.95" customHeight="1">
+    <row r="23" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>6</v>
       </c>
@@ -2141,11 +2206,11 @@
       </c>
       <c r="K23" s="14"/>
     </row>
-    <row r="24" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A24" s="76" t="s">
+    <row r="24" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="77"/>
+      <c r="B24" s="79"/>
       <c r="C24" s="11"/>
       <c r="D24" s="12"/>
       <c r="E24" s="24"/>
@@ -2156,7 +2221,7 @@
       <c r="J24" s="24"/>
       <c r="K24" s="14"/>
     </row>
-    <row r="25" spans="1:11" ht="19.95" customHeight="1">
+    <row r="25" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>1</v>
       </c>
@@ -2192,7 +2257,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="3" customFormat="1" ht="19.95" customHeight="1">
+    <row r="26" spans="1:11" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <v>2</v>
       </c>
@@ -2228,7 +2293,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="19.95" customHeight="1">
+    <row r="27" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>3</v>
       </c>
@@ -2264,7 +2329,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="3" customFormat="1" ht="19.95" customHeight="1">
+    <row r="28" spans="1:11" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <v>4</v>
       </c>
@@ -2300,7 +2365,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="19.95" customHeight="1">
+    <row r="29" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
         <v>5</v>
       </c>
@@ -2336,7 +2401,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="19.95" customHeight="1">
+    <row r="30" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
         <v>6</v>
       </c>
@@ -2370,11 +2435,11 @@
       </c>
       <c r="K30" s="14"/>
     </row>
-    <row r="31" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A31" s="76" t="s">
+    <row r="31" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="B31" s="77"/>
+      <c r="B31" s="79"/>
       <c r="C31" s="11"/>
       <c r="D31" s="12"/>
       <c r="E31" s="24"/>
@@ -2385,7 +2450,7 @@
       <c r="J31" s="24"/>
       <c r="K31" s="14"/>
     </row>
-    <row r="32" spans="1:11" ht="19.95" customHeight="1">
+    <row r="32" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <v>1</v>
       </c>
@@ -2421,7 +2486,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="3" customFormat="1" ht="19.95" customHeight="1">
+    <row r="33" spans="1:11" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
         <v>2</v>
       </c>
@@ -2457,7 +2522,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="19.95" customHeight="1">
+    <row r="34" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13">
         <v>3</v>
       </c>
@@ -2493,7 +2558,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="3" customFormat="1" ht="19.95" customHeight="1">
+    <row r="35" spans="1:11" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
         <v>4</v>
       </c>
@@ -2529,7 +2594,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="19.95" customHeight="1">
+    <row r="36" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
         <v>5</v>
       </c>
@@ -2565,7 +2630,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="19.95" customHeight="1">
+    <row r="37" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13">
         <v>6</v>
       </c>
@@ -2599,11 +2664,11 @@
       </c>
       <c r="K37" s="14"/>
     </row>
-    <row r="38" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A38" s="78" t="s">
+    <row r="38" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="B38" s="78"/>
+      <c r="B38" s="75"/>
       <c r="C38" s="11"/>
       <c r="D38" s="12"/>
       <c r="E38" s="24"/>
@@ -2614,7 +2679,7 @@
       <c r="J38" s="24"/>
       <c r="K38" s="14"/>
     </row>
-    <row r="39" spans="1:11" s="3" customFormat="1" ht="19.95" customHeight="1">
+    <row r="39" spans="1:11" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
         <v>1</v>
       </c>
@@ -2650,7 +2715,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="19.95" customHeight="1">
+    <row r="40" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
         <v>2</v>
       </c>
@@ -2686,7 +2751,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="19.95" customHeight="1">
+    <row r="41" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
         <v>3</v>
       </c>
@@ -2722,7 +2787,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="19.95" customHeight="1">
+    <row r="42" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
         <v>4</v>
       </c>
@@ -2758,7 +2823,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="19.95" customHeight="1">
+    <row r="43" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
         <v>5</v>
       </c>
@@ -2794,7 +2859,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="19.95" customHeight="1">
+    <row r="44" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11">
         <v>6</v>
       </c>
@@ -2830,11 +2895,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A45" s="78" t="s">
+    <row r="45" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="B45" s="78"/>
+      <c r="B45" s="75"/>
       <c r="C45" s="11"/>
       <c r="D45" s="12"/>
       <c r="E45" s="24"/>
@@ -2845,7 +2910,7 @@
       <c r="J45" s="24"/>
       <c r="K45" s="14"/>
     </row>
-    <row r="46" spans="1:11" s="3" customFormat="1" ht="19.95" customHeight="1">
+    <row r="46" spans="1:11" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11">
         <v>1</v>
       </c>
@@ -2881,7 +2946,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="19.95" customHeight="1">
+    <row r="47" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11">
         <v>2</v>
       </c>
@@ -2917,7 +2982,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="19.95" customHeight="1">
+    <row r="48" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11">
         <v>3</v>
       </c>
@@ -2953,7 +3018,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="19.95" customHeight="1">
+    <row r="49" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11">
         <v>4</v>
       </c>
@@ -2989,7 +3054,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="19.95" customHeight="1">
+    <row r="50" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11">
         <v>5</v>
       </c>
@@ -3025,7 +3090,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="19.95" customHeight="1">
+    <row r="51" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11">
         <v>6</v>
       </c>
@@ -3061,11 +3126,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A52" s="78" t="s">
+    <row r="52" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="B52" s="78"/>
+      <c r="B52" s="75"/>
       <c r="C52" s="11"/>
       <c r="D52" s="12"/>
       <c r="E52" s="24"/>
@@ -3076,7 +3141,7 @@
       <c r="J52" s="48"/>
       <c r="K52" s="14"/>
     </row>
-    <row r="53" spans="1:11" s="3" customFormat="1" ht="19.95" customHeight="1">
+    <row r="53" spans="1:11" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11">
         <v>1</v>
       </c>
@@ -3112,7 +3177,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="19.95" customHeight="1">
+    <row r="54" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11">
         <v>2</v>
       </c>
@@ -3148,7 +3213,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="19.95" customHeight="1">
+    <row r="55" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="11">
         <v>3</v>
       </c>
@@ -3184,7 +3249,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="19.95" customHeight="1">
+    <row r="56" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="11">
         <v>4</v>
       </c>
@@ -3220,7 +3285,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="19.95" customHeight="1">
+    <row r="57" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11">
         <v>5</v>
       </c>
@@ -3256,7 +3321,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="19.95" customHeight="1">
+    <row r="58" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="11">
         <v>6</v>
       </c>
@@ -3292,11 +3357,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A59" s="74" t="s">
+    <row r="59" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="B59" s="75"/>
+      <c r="B59" s="77"/>
       <c r="C59" s="11"/>
       <c r="D59" s="12"/>
       <c r="E59" s="24"/>
@@ -3307,7 +3372,7 @@
       <c r="J59" s="48"/>
       <c r="K59" s="14"/>
     </row>
-    <row r="60" spans="1:11" ht="19.95" customHeight="1">
+    <row r="60" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="11">
         <v>1</v>
       </c>
@@ -3343,7 +3408,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="19.95" customHeight="1">
+    <row r="61" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="11">
         <v>2</v>
       </c>
@@ -3379,7 +3444,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="19.95" customHeight="1">
+    <row r="62" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="11">
         <v>3</v>
       </c>
@@ -3415,11 +3480,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="19.95" customHeight="1">
-      <c r="A63" s="74" t="s">
+    <row r="63" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="B63" s="75"/>
+      <c r="B63" s="77"/>
       <c r="C63" s="11"/>
       <c r="D63" s="12"/>
       <c r="E63" s="24"/>
@@ -3430,7 +3495,7 @@
       <c r="J63" s="48"/>
       <c r="K63" s="14"/>
     </row>
-    <row r="64" spans="1:11" ht="19.95" customHeight="1">
+    <row r="64" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="11">
         <v>1</v>
       </c>
@@ -3466,7 +3531,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="19.95" customHeight="1">
+    <row r="65" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="11">
         <v>2</v>
       </c>
@@ -3502,7 +3567,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="19.95" customHeight="1">
+    <row r="66" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="11">
         <v>3</v>
       </c>
@@ -3538,7 +3603,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="19.95" customHeight="1">
+    <row r="67" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="11">
         <v>4</v>
       </c>
@@ -3574,7 +3639,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="19.95" customHeight="1">
+    <row r="68" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="11">
         <v>5</v>
       </c>
@@ -3610,7 +3675,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="19.95" customHeight="1">
+    <row r="69" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="11">
         <v>6</v>
       </c>
@@ -3646,7 +3711,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="70" spans="1:12" s="5" customFormat="1" ht="19.95" customHeight="1">
+    <row r="70" spans="1:12" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="59" t="s">
         <v>38</v>
       </c>
@@ -3671,7 +3736,7 @@
       </c>
       <c r="L70" s="19"/>
     </row>
-    <row r="71" spans="1:12" ht="19.95" customHeight="1">
+    <row r="71" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="64"/>
       <c r="B71" s="65"/>
       <c r="C71" s="64"/>
@@ -3688,7 +3753,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="19.95" customHeight="1">
+    <row r="72" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="64"/>
       <c r="B72" s="65"/>
       <c r="C72" s="64"/>
@@ -3705,7 +3770,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="19.95" customHeight="1">
+    <row r="73" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="64"/>
       <c r="B73" s="65"/>
       <c r="C73" s="64"/>
@@ -3722,7 +3787,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="19.95" customHeight="1">
+    <row r="74" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="64"/>
       <c r="B74" s="65"/>
       <c r="C74" s="64"/>
@@ -3739,7 +3804,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="19.95" customHeight="1">
+    <row r="75" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="69"/>
       <c r="B75" s="70"/>
       <c r="C75" s="69"/>
@@ -3761,7 +3826,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="19.95" customHeight="1">
+    <row r="76" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="64"/>
       <c r="B76" s="65"/>
       <c r="C76" s="64"/>
@@ -3774,7 +3839,7 @@
       <c r="J76" s="48"/>
       <c r="K76" s="14"/>
     </row>
-    <row r="77" spans="1:12" ht="19.95" customHeight="1">
+    <row r="77" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="64"/>
       <c r="B77" s="65"/>
       <c r="C77" s="64"/>
@@ -3789,11 +3854,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A17:B17"/>
     <mergeCell ref="A59:B59"/>
     <mergeCell ref="A63:B63"/>
     <mergeCell ref="A24:B24"/>
@@ -3801,6 +3861,11 @@
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A17:B17"/>
   </mergeCells>
   <pageMargins left="0.08" right="0.08" top="0.24" bottom="0.24" header="0.51" footer="0.16"/>
   <pageSetup paperSize="9" scale="90" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -3815,12 +3880,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
+    <sheetView zoomScale="115" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="19.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.44140625" style="6" customWidth="1"/>
     <col min="2" max="2" width="17.5546875" style="7" customWidth="1"/>
@@ -3834,18 +3899,18 @@
     <col min="10" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A1" s="79" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-    </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" ht="19.95" customHeight="1">
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -3868,18 +3933,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="19.95" customHeight="1">
-      <c r="A3" s="78" t="s">
+    <row r="3" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="78"/>
+      <c r="B3" s="75"/>
       <c r="C3" s="11"/>
       <c r="D3" s="12"/>
       <c r="E3" s="24"/>
       <c r="F3" s="38"/>
       <c r="G3" s="14"/>
     </row>
-    <row r="4" spans="1:7" ht="19.95" customHeight="1">
+    <row r="4" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>1</v>
       </c>
@@ -3903,11 +3968,11 @@
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="19.95" customHeight="1">
-      <c r="A5" s="78" t="s">
+    <row r="5" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="78"/>
+      <c r="B5" s="75"/>
       <c r="C5" s="11"/>
       <c r="D5" s="12"/>
       <c r="E5" s="24"/>
@@ -3917,11 +3982,11 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" ht="19.95" customHeight="1">
-      <c r="A6" s="78" t="s">
+    <row r="6" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="78"/>
+      <c r="B6" s="75"/>
       <c r="C6" s="11"/>
       <c r="D6" s="12"/>
       <c r="E6" s="24"/>
@@ -3931,7 +3996,7 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" ht="19.95" customHeight="1">
+    <row r="7" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>1</v>
       </c>
@@ -3955,7 +4020,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="19.95" customHeight="1">
+    <row r="8" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>2</v>
       </c>
@@ -3977,11 +4042,11 @@
       </c>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" ht="19.95" customHeight="1">
-      <c r="A9" s="76" t="s">
+    <row r="9" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="77"/>
+      <c r="B9" s="79"/>
       <c r="C9" s="11"/>
       <c r="D9" s="12"/>
       <c r="E9" s="24"/>
@@ -3991,7 +4056,7 @@
       </c>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:7" ht="19.95" customHeight="1">
+    <row r="10" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>1</v>
       </c>
@@ -4013,11 +4078,11 @@
       </c>
       <c r="G10" s="14"/>
     </row>
-    <row r="11" spans="1:7" ht="19.95" customHeight="1">
-      <c r="A11" s="76" t="s">
+    <row r="11" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="77"/>
+      <c r="B11" s="79"/>
       <c r="C11" s="11"/>
       <c r="D11" s="12"/>
       <c r="E11" s="24"/>
@@ -4027,7 +4092,7 @@
       </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:7" ht="19.95" customHeight="1">
+    <row r="12" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>1</v>
       </c>
@@ -4049,11 +4114,11 @@
       </c>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" spans="1:7" ht="19.95" customHeight="1">
-      <c r="A13" s="78" t="s">
+    <row r="13" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="78"/>
+      <c r="B13" s="75"/>
       <c r="C13" s="11"/>
       <c r="D13" s="12"/>
       <c r="E13" s="24"/>
@@ -4063,7 +4128,7 @@
       </c>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:7" ht="19.95" customHeight="1">
+    <row r="14" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>1</v>
       </c>
@@ -4087,11 +4152,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="19.95" customHeight="1">
-      <c r="A15" s="78" t="s">
+    <row r="15" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="78"/>
+      <c r="B15" s="75"/>
       <c r="C15" s="11"/>
       <c r="D15" s="12"/>
       <c r="E15" s="24"/>
@@ -4101,7 +4166,7 @@
       </c>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" spans="1:7" ht="19.95" customHeight="1">
+    <row r="16" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>1</v>
       </c>
@@ -4125,11 +4190,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="19.95" customHeight="1">
-      <c r="A17" s="78" t="s">
+    <row r="17" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="78"/>
+      <c r="B17" s="75"/>
       <c r="C17" s="11"/>
       <c r="D17" s="12"/>
       <c r="E17" s="24"/>
@@ -4139,7 +4204,7 @@
       </c>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="1:8" ht="19.95" customHeight="1">
+    <row r="18" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>1</v>
       </c>
@@ -4163,7 +4228,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="19.95" customHeight="1">
+    <row r="19" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>2</v>
       </c>
@@ -4187,7 +4252,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="19.95" customHeight="1">
+    <row r="20" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>3</v>
       </c>
@@ -4211,7 +4276,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="5" customFormat="1" ht="19.95" customHeight="1">
+    <row r="21" spans="1:8" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>38</v>
       </c>
@@ -4230,7 +4295,7 @@
       <c r="G21" s="17"/>
       <c r="H21" s="19"/>
     </row>
-    <row r="22" spans="1:8" ht="19.95" customHeight="1">
+    <row r="22" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="80" t="s">
         <v>4</v>
       </c>
@@ -4241,7 +4306,7 @@
       <c r="F22" s="48"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:8" ht="19.95" customHeight="1">
+    <row r="23" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>1</v>
       </c>
@@ -4265,7 +4330,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="19.95" customHeight="1">
+    <row r="24" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>2</v>
       </c>
@@ -4289,7 +4354,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="19.95" customHeight="1">
+    <row r="25" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>3</v>
       </c>
@@ -4313,7 +4378,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="19.95" customHeight="1">
+    <row r="26" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
         <v>15</v>
       </c>
@@ -4337,7 +4402,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="19.95" customHeight="1">
+    <row r="27" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>16</v>
       </c>
@@ -4361,7 +4426,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="19.95" customHeight="1">
+    <row r="28" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>17</v>
       </c>
@@ -4385,7 +4450,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="5" customFormat="1" ht="19.95" customHeight="1">
+    <row r="29" spans="1:8" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
         <v>38</v>
       </c>
@@ -4404,7 +4469,7 @@
       <c r="G29" s="17"/>
       <c r="H29" s="19"/>
     </row>
-    <row r="30" spans="1:8" s="5" customFormat="1" ht="19.95" customHeight="1">
+    <row r="30" spans="1:8" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16"/>
       <c r="B30" s="17"/>
       <c r="C30" s="16"/>
@@ -4421,16 +4486,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A17:B17"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A17:B17"/>
   </mergeCells>
   <pageMargins left="0.08" right="0.08" top="0.24" bottom="0.24" header="0.51" footer="0.16"/>
   <pageSetup paperSize="9" scale="90" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -4450,7 +4515,7 @@
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="19.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.44140625" style="6" customWidth="1"/>
     <col min="2" max="2" width="17.5546875" style="7" customWidth="1"/>
@@ -4464,18 +4529,18 @@
     <col min="10" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A1" s="79" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="74" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-    </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" ht="19.95" customHeight="1">
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+    </row>
+    <row r="2" spans="1:8" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -4498,18 +4563,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="19.95" customHeight="1">
-      <c r="A3" s="78" t="s">
+    <row r="3" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="78"/>
+      <c r="B3" s="75"/>
       <c r="C3" s="11"/>
       <c r="D3" s="12"/>
       <c r="E3" s="24"/>
       <c r="F3" s="48"/>
       <c r="G3" s="14"/>
     </row>
-    <row r="4" spans="1:8" ht="19.95" customHeight="1">
+    <row r="4" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <v>1</v>
       </c>
@@ -4531,7 +4596,7 @@
       </c>
       <c r="G4" s="14"/>
     </row>
-    <row r="5" spans="1:8" ht="19.95" customHeight="1">
+    <row r="5" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>2</v>
       </c>
@@ -4555,7 +4620,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="19.95" customHeight="1">
+    <row r="6" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>3</v>
       </c>
@@ -4577,7 +4642,7 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:8" ht="19.95" customHeight="1">
+    <row r="7" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>4</v>
       </c>
@@ -4599,7 +4664,7 @@
       </c>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:8" ht="19.95" customHeight="1">
+    <row r="8" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>5</v>
       </c>
@@ -4623,7 +4688,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="19.95" customHeight="1">
+    <row r="9" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>6</v>
       </c>
@@ -4647,7 +4712,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="19.95" customHeight="1">
+    <row r="10" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>7</v>
       </c>
@@ -4671,7 +4736,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="19.95" customHeight="1">
+    <row r="11" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>8</v>
       </c>
@@ -4695,7 +4760,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="19.95" customHeight="1">
+    <row r="12" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>6</v>
       </c>
@@ -4719,7 +4784,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="19.95" customHeight="1">
+    <row r="13" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>8</v>
       </c>
@@ -4743,7 +4808,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="19.95" customHeight="1">
+    <row r="14" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>9</v>
       </c>
@@ -4765,7 +4830,7 @@
       </c>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="1:8" ht="19.95" customHeight="1">
+    <row r="15" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>10</v>
       </c>
@@ -4787,7 +4852,7 @@
       </c>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" spans="1:8" s="5" customFormat="1" ht="19.95" customHeight="1">
+    <row r="16" spans="1:8" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>38</v>
       </c>
@@ -4806,7 +4871,7 @@
       <c r="G16" s="17"/>
       <c r="H16" s="19"/>
     </row>
-    <row r="17" spans="1:8" ht="19.95" customHeight="1">
+    <row r="17" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="80" t="s">
         <v>60</v>
       </c>
@@ -4817,7 +4882,7 @@
       <c r="F17" s="48"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="1:8" ht="19.95" customHeight="1">
+    <row r="18" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <v>1</v>
       </c>
@@ -4840,7 +4905,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="19.95" customHeight="1">
+    <row r="19" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
         <v>2</v>
       </c>
@@ -4863,7 +4928,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="19.95" customHeight="1">
+    <row r="20" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>3</v>
       </c>
@@ -4885,7 +4950,7 @@
       </c>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:8" ht="19.95" customHeight="1">
+    <row r="21" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <v>4</v>
       </c>
@@ -4907,7 +4972,7 @@
       </c>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:8" ht="19.95" customHeight="1">
+    <row r="22" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>5</v>
       </c>
@@ -4929,7 +4994,7 @@
       </c>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:8" s="5" customFormat="1" ht="19.95" customHeight="1">
+    <row r="23" spans="1:8" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>38</v>
       </c>
@@ -4948,7 +5013,7 @@
       <c r="G23" s="17"/>
       <c r="H23" s="19"/>
     </row>
-    <row r="24" spans="1:8" s="5" customFormat="1" ht="19.95" customHeight="1">
+    <row r="24" spans="1:8" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16"/>
       <c r="B24" s="17"/>
       <c r="C24" s="16"/>
@@ -4986,14 +5051,14 @@
       <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>68</v>
       </c>
@@ -5001,47 +5066,47 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>102</v>
       </c>
@@ -5049,32 +5114,32 @@
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="27" spans="2:3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>151</v>
       </c>
@@ -5093,7 +5158,7 @@
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5109,10 +5174,353 @@
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="G11:V41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="13" width="8.88671875" style="81"/>
+    <col min="14" max="14" width="10.5546875" style="81" customWidth="1"/>
+    <col min="15" max="15" width="8.88671875" style="81"/>
+    <col min="16" max="16" width="10.77734375" style="81" customWidth="1"/>
+    <col min="17" max="17" width="16.21875" style="81" customWidth="1"/>
+    <col min="18" max="18" width="14.109375" style="81" customWidth="1"/>
+    <col min="19" max="16384" width="8.88671875" style="81"/>
+  </cols>
+  <sheetData>
+    <row r="11" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="H11" s="81">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="12" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="H12" s="81">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="13" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="H13" s="81">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="14" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="H14" s="81">
+        <v>4233</v>
+      </c>
+    </row>
+    <row r="15" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G15" s="81">
+        <v>40</v>
+      </c>
+      <c r="H15" s="81">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="16" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G16" s="81">
+        <v>97</v>
+      </c>
+      <c r="H16" s="81">
+        <v>2875</v>
+      </c>
+    </row>
+    <row r="18" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="H18" s="81">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="19" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="H19" s="81">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="20" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="H20" s="81">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="21" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="H21" s="81">
+        <v>2743</v>
+      </c>
+    </row>
+    <row r="22" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="G22" s="81">
+        <v>17</v>
+      </c>
+      <c r="H22" s="81">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="23" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="G23" s="81">
+        <v>63</v>
+      </c>
+      <c r="H23" s="81">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="24" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="N24" s="82" t="s">
+        <v>152</v>
+      </c>
+      <c r="O24" s="82" t="s">
+        <v>153</v>
+      </c>
+      <c r="P24" s="82" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="25" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="N25" s="82">
+        <v>315</v>
+      </c>
+      <c r="O25" s="82">
+        <v>28725</v>
+      </c>
+      <c r="P25" s="82">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="26" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="H26" s="81">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="27" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="H27" s="81">
+        <v>774</v>
+      </c>
+      <c r="N27" s="82" t="s">
+        <v>155</v>
+      </c>
+      <c r="O27" s="82" t="s">
+        <v>156</v>
+      </c>
+      <c r="P27" s="82" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q27" s="83" t="s">
+        <v>157</v>
+      </c>
+      <c r="R27" s="83" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="28" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="H28" s="81">
+        <v>522</v>
+      </c>
+      <c r="N28" s="82">
+        <f>O25*P25</f>
+        <v>15511.500000000002</v>
+      </c>
+      <c r="O28" s="82">
+        <f>O25*0.2</f>
+        <v>5745</v>
+      </c>
+      <c r="P28" s="82">
+        <f>SUM(N28+O28)</f>
+        <v>21256.5</v>
+      </c>
+      <c r="Q28" s="84">
+        <v>50</v>
+      </c>
+      <c r="R28" s="84">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="H29" s="81">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="30" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="G30" s="81">
+        <v>12</v>
+      </c>
+      <c r="H30" s="81">
+        <v>355</v>
+      </c>
+      <c r="N30" s="82" t="s">
+        <v>159</v>
+      </c>
+      <c r="O30" s="82"/>
+      <c r="P30" s="82" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q30" s="82" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="31" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="G31" s="81">
+        <v>43</v>
+      </c>
+      <c r="H31" s="81">
+        <v>1274</v>
+      </c>
+      <c r="N31" s="82">
+        <v>1</v>
+      </c>
+      <c r="O31" s="82" t="s">
+        <v>161</v>
+      </c>
+      <c r="P31" s="82">
+        <v>18</v>
+      </c>
+      <c r="Q31" s="82">
+        <f>P31*P25</f>
+        <v>9.7200000000000006</v>
+      </c>
+    </row>
+    <row r="32" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="N32" s="82">
+        <v>2</v>
+      </c>
+      <c r="O32" s="82" t="s">
+        <v>162</v>
+      </c>
+      <c r="P32" s="82">
+        <v>44</v>
+      </c>
+      <c r="Q32" s="82">
+        <f>P32*P25</f>
+        <v>23.76</v>
+      </c>
+      <c r="T32" s="81">
+        <v>7.2</v>
+      </c>
+      <c r="U32" s="81">
+        <v>11.34</v>
+      </c>
+      <c r="V32" s="81">
+        <v>11.82</v>
+      </c>
+    </row>
+    <row r="33" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="H33" s="81">
+        <v>180</v>
+      </c>
+      <c r="N33" s="82">
+        <v>3</v>
+      </c>
+      <c r="O33" s="82" t="s">
+        <v>163</v>
+      </c>
+      <c r="P33" s="82">
+        <v>30</v>
+      </c>
+      <c r="Q33" s="82">
+        <f>P33*P25</f>
+        <v>16.200000000000003</v>
+      </c>
+      <c r="T33" s="81">
+        <v>0.7</v>
+      </c>
+      <c r="U33" s="81">
+        <v>4.96</v>
+      </c>
+      <c r="V33" s="81">
+        <v>3.28</v>
+      </c>
+    </row>
+    <row r="34" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="H34" s="81">
+        <v>594</v>
+      </c>
+      <c r="T34" s="81">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="U34" s="81">
+        <v>23.57</v>
+      </c>
+      <c r="V34" s="81">
+        <v>11.95</v>
+      </c>
+    </row>
+    <row r="35" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="H35" s="81">
+        <v>435</v>
+      </c>
+      <c r="N35" s="85" t="s">
+        <v>152</v>
+      </c>
+      <c r="O35" s="85" t="s">
+        <v>164</v>
+      </c>
+      <c r="P35" s="85"/>
+      <c r="Q35" s="85" t="s">
+        <v>153</v>
+      </c>
+      <c r="T35" s="81">
+        <v>0.9</v>
+      </c>
+      <c r="U35" s="81">
+        <v>3.67</v>
+      </c>
+      <c r="V35" s="81">
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="36" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="H36" s="81">
+        <v>1436</v>
+      </c>
+      <c r="N36" s="85">
+        <v>315</v>
+      </c>
+      <c r="O36" s="85" t="s">
+        <v>165</v>
+      </c>
+      <c r="P36" s="85"/>
+      <c r="Q36" s="85">
+        <f>315*40</f>
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="37" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="G37" s="81">
+        <v>10</v>
+      </c>
+      <c r="H37" s="81">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="38" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="G38" s="81">
+        <v>33</v>
+      </c>
+      <c r="H38" s="81">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="41" spans="7:22" x14ac:dyDescent="0.3">
+      <c r="O41" s="81">
+        <v>48999</v>
+      </c>
+      <c r="P41" s="81">
+        <v>26413</v>
+      </c>
+      <c r="Q41" s="81">
+        <f>P41/O41</f>
+        <v>0.5390518173840283</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>